--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H2">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>522.1659675560138</v>
+        <v>1541.979193980784</v>
       </c>
       <c r="R2">
-        <v>4699.493708004125</v>
+        <v>13877.81274582706</v>
       </c>
       <c r="S2">
-        <v>0.01151484914790297</v>
+        <v>0.02322562121000191</v>
       </c>
       <c r="T2">
-        <v>0.01151484914790297</v>
+        <v>0.0232256212100019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H3">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>7844.015226616661</v>
+        <v>16900.83191868229</v>
       </c>
       <c r="R3">
-        <v>70596.13703954994</v>
+        <v>152107.4872681406</v>
       </c>
       <c r="S3">
-        <v>0.1729769032461037</v>
+        <v>0.2545639537871198</v>
       </c>
       <c r="T3">
-        <v>0.1729769032461038</v>
+        <v>0.2545639537871198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H4">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>3969.699387023681</v>
+        <v>9636.746096860676</v>
       </c>
       <c r="R4">
-        <v>35727.29448321313</v>
+        <v>86730.71487174608</v>
       </c>
       <c r="S4">
-        <v>0.08754015474820676</v>
+        <v>0.1451507357663087</v>
       </c>
       <c r="T4">
-        <v>0.08754015474820677</v>
+        <v>0.1451507357663087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H5">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>823.2057630813582</v>
+        <v>2106.7230022714</v>
       </c>
       <c r="R5">
-        <v>7408.851867732224</v>
+        <v>18960.5070204426</v>
       </c>
       <c r="S5">
-        <v>0.01815340479566843</v>
+        <v>0.03173191352785742</v>
       </c>
       <c r="T5">
-        <v>0.01815340479566844</v>
+        <v>0.03173191352785742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>226.082006</v>
       </c>
       <c r="H6">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>869.9209803102032</v>
+        <v>1192.285057730104</v>
       </c>
       <c r="R6">
-        <v>7829.288822791828</v>
+        <v>10730.56551957094</v>
       </c>
       <c r="S6">
-        <v>0.01918357281259107</v>
+        <v>0.01795845315765638</v>
       </c>
       <c r="T6">
-        <v>0.01918357281259107</v>
+        <v>0.01795845315765638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>226.082006</v>
       </c>
       <c r="H7">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
         <v>13068.01637694731</v>
@@ -883,10 +883,10 @@
         <v>117612.1473925258</v>
       </c>
       <c r="S7">
-        <v>0.2881770291295972</v>
+        <v>0.1968332643669005</v>
       </c>
       <c r="T7">
-        <v>0.2881770291295973</v>
+        <v>0.1968332643669005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>226.082006</v>
       </c>
       <c r="H8">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>6613.461996498283</v>
+        <v>7451.299227173016</v>
       </c>
       <c r="R8">
-        <v>59521.15796848454</v>
+        <v>67061.69304455715</v>
       </c>
       <c r="S8">
-        <v>0.1458406368218507</v>
+        <v>0.1122330664695448</v>
       </c>
       <c r="T8">
-        <v>0.1458406368218507</v>
+        <v>0.1122330664695448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>226.082006</v>
       </c>
       <c r="H9">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>1371.448943270942</v>
+        <v>1628.9547655309</v>
       </c>
       <c r="R9">
-        <v>12343.04048943848</v>
+        <v>14660.5928897781</v>
       </c>
       <c r="S9">
-        <v>0.03024331089544204</v>
+        <v>0.02453566591568397</v>
       </c>
       <c r="T9">
-        <v>0.03024331089544205</v>
+        <v>0.02453566591568397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H10">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N10">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q10">
-        <v>406.7196893398473</v>
+        <v>655.517676610576</v>
       </c>
       <c r="R10">
-        <v>3660.477204058625</v>
+        <v>5899.659089495184</v>
       </c>
       <c r="S10">
-        <v>0.008969017820426818</v>
+        <v>0.009873547783814969</v>
       </c>
       <c r="T10">
-        <v>0.008969017820426818</v>
+        <v>0.009873547783814969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H11">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.406322</v>
       </c>
       <c r="O11">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P11">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q11">
-        <v>6109.772820083928</v>
+        <v>7184.788300236002</v>
       </c>
       <c r="R11">
-        <v>54987.95538075535</v>
+        <v>64663.09470212402</v>
       </c>
       <c r="S11">
-        <v>0.1347332394727108</v>
+        <v>0.1082188217498182</v>
       </c>
       <c r="T11">
-        <v>0.1347332394727108</v>
+        <v>0.1082188217498182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H12">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N12">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q12">
-        <v>3092.033954299514</v>
+        <v>4096.720264552979</v>
       </c>
       <c r="R12">
-        <v>27828.30558869563</v>
+        <v>36870.48238097681</v>
       </c>
       <c r="S12">
-        <v>0.06818580060013861</v>
+        <v>0.06170567893475223</v>
       </c>
       <c r="T12">
-        <v>0.06818580060013861</v>
+        <v>0.06170567893475224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H13">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N13">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O13">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P13">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q13">
-        <v>641.2022479946584</v>
+        <v>895.5984445846001</v>
       </c>
       <c r="R13">
-        <v>5770.820231951925</v>
+        <v>8060.386001261401</v>
       </c>
       <c r="S13">
-        <v>0.01413984751536442</v>
+        <v>0.0134896957827876</v>
       </c>
       <c r="T13">
-        <v>0.01413984751536442</v>
+        <v>0.0134896957827876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H14">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I14">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J14">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N14">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q14">
-        <v>0.6158217355877776</v>
+        <v>1.62645688244</v>
       </c>
       <c r="R14">
-        <v>5.542395620289999</v>
+        <v>14.63811194196</v>
       </c>
       <c r="S14">
-        <v>1.358015425724268E-05</v>
+        <v>2.449804226503902E-05</v>
       </c>
       <c r="T14">
-        <v>1.358015425724269E-05</v>
+        <v>2.449804226503901E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H15">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I15">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J15">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>173.406322</v>
       </c>
       <c r="O15">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P15">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q15">
-        <v>9.250919000794221</v>
+        <v>17.82674792267333</v>
       </c>
       <c r="R15">
-        <v>83.25827100714798</v>
+        <v>160.44073130406</v>
       </c>
       <c r="S15">
-        <v>0.0002040020671438871</v>
+        <v>0.0002685102991495739</v>
       </c>
       <c r="T15">
-        <v>0.0002040020671438871</v>
+        <v>0.0002685102991495739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H16">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I16">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J16">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N16">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q16">
-        <v>4.68170527796111</v>
+        <v>10.16469747111334</v>
       </c>
       <c r="R16">
-        <v>42.13534750165</v>
+        <v>91.48227724002001</v>
       </c>
       <c r="S16">
-        <v>0.0001032413703309386</v>
+        <v>0.000153102852554627</v>
       </c>
       <c r="T16">
-        <v>0.0001032413703309387</v>
+        <v>0.000153102852554627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H17">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I17">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J17">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N17">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O17">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P17">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q17">
-        <v>0.9708560750126665</v>
+        <v>2.2221403115</v>
       </c>
       <c r="R17">
-        <v>8.737704675113998</v>
+        <v>19.9992628035</v>
       </c>
       <c r="S17">
-        <v>2.140940226422703E-05</v>
+        <v>3.347035378417552E-05</v>
       </c>
       <c r="T17">
-        <v>2.140940226422704E-05</v>
+        <v>3.347035378417552E-05</v>
       </c>
     </row>
   </sheetData>
